--- a/Credentials.xlsx
+++ b/Credentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\eclipse-workspace\WebShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9971E47B-6862-46E5-A92B-278EA602CE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F129C6F-E610-4490-A9F8-C05944F53580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11784" yWindow="216" windowWidth="11256" windowHeight="12144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid-Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -36,9 +36,6 @@
     <t>invalid1@example.com</t>
   </si>
   <si>
-    <t>invalid2@example.com</t>
-  </si>
-  <si>
     <t>invalid3@example.com</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
   </si>
   <si>
     <t>wrongpass2</t>
-  </si>
-  <si>
-    <t>wrongpass3</t>
   </si>
 </sst>
 </file>
@@ -380,7 +374,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,30 +396,24 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{96E5DF0A-B81B-4528-A953-22386FEF74D5}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{C94F6550-E84A-460D-B246-AB4CB6747649}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{C4DC0A9E-7ED2-4474-B62E-EE490AEFBCAB}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{C4DC0A9E-7ED2-4474-B62E-EE490AEFBCAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
